--- a/testbench/Test Plan/TEST_PLAN_alu.xlsx
+++ b/testbench/Test Plan/TEST_PLAN_alu.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB249E03-622B-4964-8F64-21B6FB9A0208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="TEST PLAN" sheetId="1" r:id="rId1"/>
@@ -23,7 +22,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'TEST PLAN'!$3:$4</definedName>
     <definedName name="TitleRegion..BO60">'TEST PLAN'!$B$3:$B$4</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -69,9 +68,6 @@
     <t>NOT TESTED</t>
   </si>
   <si>
-    <t>XXX TEST PLAN</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve"> </t>
     </r>
@@ -108,11 +104,14 @@
   <si>
     <t xml:space="preserve">                 EXPECTED OUTPUT (3)</t>
   </si>
+  <si>
+    <t>ALU TEST PLAN</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -664,6 +663,69 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="12" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="10" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="6" applyNumberFormat="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="6" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -676,95 +738,32 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="10" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="12" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="10" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="6" applyNumberFormat="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="6" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="19">
-    <cellStyle name="% complete" xfId="16" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="% complete (beyond plan) legend" xfId="18" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Activity" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Actual (beyond plan) legend" xfId="17" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Actual legend" xfId="15" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="% complete" xfId="16"/>
+    <cellStyle name="% complete (beyond plan) legend" xfId="18"/>
+    <cellStyle name="Activity" xfId="2"/>
+    <cellStyle name="Actual (beyond plan) legend" xfId="17"/>
+    <cellStyle name="Actual legend" xfId="15"/>
     <cellStyle name="Explanatory Text" xfId="12" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="9" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="10" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="11" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Label" xfId="5" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Label" xfId="5"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Percent Complete" xfId="6" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="Period Headers" xfId="3" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="Period Highlight Control" xfId="7" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="Period Value" xfId="13" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="Plan legend" xfId="14" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="Project Headers" xfId="4" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Percent Complete" xfId="6"/>
+    <cellStyle name="Period Headers" xfId="3"/>
+    <cellStyle name="Period Highlight Control" xfId="7"/>
+    <cellStyle name="Period Value" xfId="13"/>
+    <cellStyle name="Plan legend" xfId="14"/>
+    <cellStyle name="Project Headers" xfId="4"/>
     <cellStyle name="Title" xfId="8" builtinId="15" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="11">
@@ -1159,133 +1158,133 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:BR34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="57" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="2" customWidth="1"/>
-    <col min="3" max="7" width="11.6640625" style="1" customWidth="1"/>
-    <col min="8" max="9" width="11.6640625" style="48" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" style="51" customWidth="1"/>
-    <col min="11" max="14" width="2.77734375" style="1"/>
-    <col min="15" max="15" width="2.21875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="16.88671875" style="1" customWidth="1"/>
-    <col min="17" max="18" width="2.77734375" style="1"/>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="2" customWidth="1"/>
+    <col min="3" max="7" width="11.625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="11.625" style="39" customWidth="1"/>
+    <col min="10" max="10" width="15.625" style="42" customWidth="1"/>
+    <col min="11" max="14" width="2.75" style="1"/>
+    <col min="15" max="15" width="2.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="16.875" style="1" customWidth="1"/>
+    <col min="17" max="18" width="2.75" style="1"/>
     <col min="19" max="19" width="20" style="1" customWidth="1"/>
-    <col min="20" max="20" width="2.77734375" style="1"/>
-    <col min="21" max="21" width="3.6640625" style="1" customWidth="1"/>
-    <col min="22" max="26" width="2.77734375" style="1"/>
-    <col min="27" max="27" width="11.5546875" style="1" customWidth="1"/>
-    <col min="28" max="30" width="2.77734375" style="1"/>
+    <col min="20" max="20" width="2.75" style="1"/>
+    <col min="21" max="21" width="3.625" style="1" customWidth="1"/>
+    <col min="22" max="26" width="2.75" style="1"/>
+    <col min="27" max="27" width="11.5" style="1" customWidth="1"/>
+    <col min="28" max="30" width="2.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:70" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="15" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
       <c r="E1" s="16"/>
       <c r="F1" s="16"/>
       <c r="G1" s="16"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="49"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="40"/>
       <c r="K1" s="17"/>
       <c r="L1" s="10"/>
       <c r="AD1"/>
     </row>
-    <row r="2" spans="1:70" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:70" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
       <c r="F2" s="18"/>
       <c r="G2" s="18"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="50" t="s">
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="41" t="s">
         <v>6</v>
       </c>
       <c r="K2" s="17"/>
       <c r="L2" s="12"/>
-      <c r="M2" s="35" t="s">
+      <c r="M2" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="37"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="51"/>
       <c r="R2" s="13"/>
-      <c r="S2" s="35" t="s">
+      <c r="S2" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="37"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="51"/>
       <c r="W2" s="14"/>
-      <c r="X2" s="35" t="s">
+      <c r="X2" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="32"/>
-      <c r="AE2" s="32"/>
-      <c r="AF2" s="32"/>
-      <c r="AG2" s="32"/>
-      <c r="AH2" s="32"/>
-      <c r="AI2" s="39"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="50"/>
+      <c r="AB2" s="51"/>
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="53"/>
+      <c r="AH2" s="53"/>
+      <c r="AI2" s="57"/>
       <c r="AJ2" s="11"/>
-      <c r="AK2" s="31"/>
-      <c r="AL2" s="32"/>
-      <c r="AM2" s="32"/>
-      <c r="AN2" s="32"/>
-      <c r="AO2" s="32"/>
-      <c r="AP2" s="32"/>
-      <c r="AQ2" s="32"/>
-      <c r="AR2" s="32"/>
-    </row>
-    <row r="3" spans="1:70" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="52" t="s">
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="53"/>
+      <c r="AM2" s="53"/>
+      <c r="AN2" s="53"/>
+      <c r="AO2" s="53"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="53"/>
+      <c r="AR2" s="53"/>
+    </row>
+    <row r="3" spans="1:70" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="47"/>
+      <c r="C3" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="42" t="s">
+      <c r="J3" s="33" t="s">
         <v>15</v>
-      </c>
-      <c r="J3" s="42" t="s">
-        <v>16</v>
       </c>
       <c r="K3" s="20" t="s">
         <v>2</v>
@@ -1295,12 +1294,12 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
       <c r="P3" s="29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
       <c r="S3" s="30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T3" s="4"/>
       <c r="U3" s="4"/>
@@ -1314,17 +1313,17 @@
       <c r="AC3" s="4"/>
       <c r="AD3" s="4"/>
     </row>
-    <row r="4" spans="1:70" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="57"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
+    <row r="4" spans="1:70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="48"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
       <c r="E4" s="21"/>
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
       <c r="K4" s="22"/>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
@@ -1386,19 +1385,19 @@
       <c r="BQ4" s="3"/>
       <c r="BR4" s="3"/>
     </row>
-    <row r="5" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="53">
+    <row r="5" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="43">
         <v>1</v>
       </c>
-      <c r="B5" s="54"/>
+      <c r="B5" s="44"/>
       <c r="C5" s="23"/>
       <c r="D5" s="23"/>
       <c r="E5" s="23"/>
       <c r="F5" s="23"/>
       <c r="G5" s="23"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
       <c r="K5"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
@@ -1415,494 +1414,494 @@
       <c r="X5" s="10"/>
       <c r="Y5" s="10"/>
     </row>
-    <row r="6" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="55"/>
-      <c r="B6" s="56"/>
+    <row r="6" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="45"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="24"/>
       <c r="D6" s="24"/>
       <c r="E6" s="24"/>
       <c r="F6" s="24"/>
       <c r="G6" s="24"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
       <c r="K6"/>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
     </row>
-    <row r="7" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="53">
+    <row r="7" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="43">
         <v>2</v>
       </c>
-      <c r="B7" s="54"/>
+      <c r="B7" s="44"/>
       <c r="C7" s="26"/>
       <c r="D7" s="26"/>
       <c r="E7" s="26"/>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
       <c r="K7"/>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
       <c r="AH7" s="7"/>
     </row>
-    <row r="8" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="55"/>
-      <c r="B8" s="56"/>
+    <row r="8" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="45"/>
+      <c r="B8" s="46"/>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
       <c r="E8" s="25"/>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
       <c r="K8"/>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
     </row>
-    <row r="9" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="53">
+    <row r="9" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="43">
         <v>3</v>
       </c>
-      <c r="B9" s="54"/>
+      <c r="B9" s="44"/>
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
       <c r="E9" s="27"/>
       <c r="F9" s="27"/>
       <c r="G9" s="27"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
       <c r="K9"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
     </row>
-    <row r="10" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="55"/>
-      <c r="B10" s="56"/>
+    <row r="10" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="45"/>
+      <c r="B10" s="46"/>
       <c r="C10" s="25"/>
       <c r="D10" s="25"/>
       <c r="E10" s="25"/>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
       <c r="K10"/>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="53">
+    <row r="11" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="43">
         <v>4</v>
       </c>
-      <c r="B11" s="54"/>
+      <c r="B11" s="44"/>
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
       <c r="E11" s="27"/>
       <c r="F11" s="27"/>
       <c r="G11" s="27"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
       <c r="K11"/>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
     </row>
-    <row r="12" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="55"/>
-      <c r="B12" s="56"/>
+    <row r="12" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="45"/>
+      <c r="B12" s="46"/>
       <c r="C12" s="25"/>
       <c r="D12" s="25"/>
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
       <c r="K12"/>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
     </row>
-    <row r="13" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="53">
+    <row r="13" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="43">
         <v>5</v>
       </c>
-      <c r="B13" s="54"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="26"/>
       <c r="D13" s="26"/>
       <c r="E13" s="26"/>
       <c r="F13" s="26"/>
       <c r="G13" s="26"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
       <c r="K13"/>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
     </row>
-    <row r="14" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="55"/>
-      <c r="B14" s="56"/>
+    <row r="14" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="45"/>
+      <c r="B14" s="46"/>
       <c r="C14" s="25"/>
       <c r="D14" s="25"/>
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
       <c r="K14"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
     </row>
-    <row r="15" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="53">
+    <row r="15" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="43">
         <v>6</v>
       </c>
-      <c r="B15" s="54"/>
+      <c r="B15" s="44"/>
       <c r="C15" s="28"/>
       <c r="D15" s="26"/>
       <c r="E15" s="26"/>
       <c r="F15" s="26"/>
       <c r="G15" s="26"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
       <c r="K15"/>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
     </row>
-    <row r="16" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="55"/>
-      <c r="B16" s="56"/>
+    <row r="16" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="45"/>
+      <c r="B16" s="46"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
       <c r="E16" s="25"/>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
       <c r="K16"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
     </row>
-    <row r="17" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="53">
+    <row r="17" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="43">
         <v>7</v>
       </c>
-      <c r="B17" s="54"/>
+      <c r="B17" s="44"/>
       <c r="C17" s="26"/>
       <c r="D17" s="26"/>
       <c r="E17" s="26"/>
       <c r="F17" s="26"/>
       <c r="G17" s="26"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
       <c r="K17"/>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
     </row>
-    <row r="18" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="55"/>
-      <c r="B18" s="56"/>
+    <row r="18" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="45"/>
+      <c r="B18" s="46"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
       <c r="E18" s="25"/>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
       <c r="K18"/>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
     </row>
-    <row r="19" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="53">
+    <row r="19" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="43">
         <v>8</v>
       </c>
-      <c r="B19" s="54"/>
+      <c r="B19" s="44"/>
       <c r="C19" s="26"/>
       <c r="D19" s="26"/>
       <c r="E19" s="26"/>
       <c r="F19" s="26"/>
       <c r="G19" s="26"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
       <c r="K19"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
     </row>
-    <row r="20" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="55"/>
-      <c r="B20" s="56"/>
+    <row r="20" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="45"/>
+      <c r="B20" s="46"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
       <c r="E20" s="25"/>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
       <c r="K20"/>
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
     </row>
-    <row r="21" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="53">
+    <row r="21" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="43">
         <v>9</v>
       </c>
-      <c r="B21" s="54"/>
+      <c r="B21" s="44"/>
       <c r="C21" s="27"/>
       <c r="D21" s="27"/>
       <c r="E21" s="27"/>
       <c r="F21" s="27"/>
       <c r="G21" s="27"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
       <c r="K21"/>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
     </row>
-    <row r="22" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="55"/>
-      <c r="B22" s="56"/>
+    <row r="22" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="45"/>
+      <c r="B22" s="46"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
       <c r="E22" s="25"/>
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
       <c r="K22"/>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
     </row>
-    <row r="23" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="53">
+    <row r="23" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="43">
         <v>10</v>
       </c>
-      <c r="B23" s="54"/>
+      <c r="B23" s="44"/>
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
       <c r="E23" s="27"/>
       <c r="F23" s="27"/>
       <c r="G23" s="27"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
       <c r="K23"/>
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
     </row>
-    <row r="24" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="55"/>
-      <c r="B24" s="56"/>
+    <row r="24" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="45"/>
+      <c r="B24" s="46"/>
       <c r="C24" s="27"/>
       <c r="D24" s="27"/>
       <c r="E24" s="27"/>
       <c r="F24" s="27"/>
       <c r="G24" s="27"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="47"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
       <c r="K24"/>
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
     </row>
-    <row r="25" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="53">
+    <row r="25" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="43">
         <v>11</v>
       </c>
-      <c r="B25" s="54"/>
+      <c r="B25" s="44"/>
       <c r="C25" s="26"/>
       <c r="D25" s="26"/>
       <c r="E25" s="26"/>
       <c r="F25" s="26"/>
       <c r="G25" s="26"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="46"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
       <c r="K25"/>
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
     </row>
-    <row r="26" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="55"/>
-      <c r="B26" s="56"/>
+    <row r="26" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="45"/>
+      <c r="B26" s="46"/>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
       <c r="E26" s="25"/>
       <c r="F26" s="25"/>
       <c r="G26" s="25"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="45"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
       <c r="K26"/>
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
     </row>
-    <row r="27" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="53">
+    <row r="27" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="43">
         <v>12</v>
       </c>
-      <c r="B27" s="54"/>
+      <c r="B27" s="44"/>
       <c r="C27" s="27"/>
       <c r="D27" s="27"/>
       <c r="E27" s="27"/>
       <c r="F27" s="27"/>
       <c r="G27" s="27"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="47"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
       <c r="K27"/>
       <c r="L27" s="9"/>
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
     </row>
-    <row r="28" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="55"/>
-      <c r="B28" s="56"/>
+    <row r="28" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="45"/>
+      <c r="B28" s="46"/>
       <c r="C28" s="27"/>
       <c r="D28" s="27"/>
       <c r="E28" s="27"/>
       <c r="F28" s="27"/>
       <c r="G28" s="27"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="47"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
       <c r="K28"/>
       <c r="L28" s="9"/>
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
     </row>
-    <row r="29" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="53">
+    <row r="29" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="43">
         <v>13</v>
       </c>
-      <c r="B29" s="54"/>
+      <c r="B29" s="44"/>
       <c r="C29" s="26"/>
       <c r="D29" s="26"/>
       <c r="E29" s="26"/>
       <c r="F29" s="26"/>
       <c r="G29" s="26"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="46"/>
-      <c r="J29" s="46"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="37"/>
       <c r="K29"/>
       <c r="L29" s="9"/>
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
     </row>
-    <row r="30" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="55"/>
-      <c r="B30" s="56"/>
+    <row r="30" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="45"/>
+      <c r="B30" s="46"/>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
       <c r="E30" s="25"/>
       <c r="F30" s="25"/>
       <c r="G30" s="25"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
       <c r="K30"/>
       <c r="L30" s="9"/>
       <c r="M30" s="9"/>
       <c r="N30" s="9"/>
     </row>
-    <row r="31" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="53">
+    <row r="31" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="43">
         <v>14</v>
       </c>
-      <c r="B31" s="54"/>
+      <c r="B31" s="44"/>
       <c r="C31" s="26"/>
       <c r="D31" s="26"/>
       <c r="E31" s="26"/>
       <c r="F31" s="26"/>
       <c r="G31" s="26"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="46"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
       <c r="K31"/>
       <c r="L31" s="9"/>
       <c r="M31" s="9"/>
       <c r="N31" s="9"/>
     </row>
-    <row r="32" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="55"/>
-      <c r="B32" s="56"/>
+    <row r="32" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="45"/>
+      <c r="B32" s="46"/>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
       <c r="E32" s="25"/>
       <c r="F32" s="25"/>
       <c r="G32" s="25"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="45"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
       <c r="K32"/>
       <c r="L32" s="9"/>
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
     </row>
-    <row r="33" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="53">
+    <row r="33" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="43">
         <v>15</v>
       </c>
-      <c r="B33" s="54"/>
+      <c r="B33" s="44"/>
       <c r="C33" s="26"/>
       <c r="D33" s="26"/>
       <c r="E33" s="26"/>
       <c r="F33" s="26"/>
       <c r="G33" s="26"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="46"/>
-      <c r="J33" s="46"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="37"/>
       <c r="K33"/>
       <c r="L33" s="9"/>
       <c r="M33" s="9"/>
       <c r="N33" s="9"/>
     </row>
-    <row r="34" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="55"/>
-      <c r="B34" s="56"/>
+    <row r="34" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="45"/>
+      <c r="B34" s="46"/>
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
       <c r="E34" s="25"/>
       <c r="F34" s="25"/>
       <c r="G34" s="25"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="45"/>
-      <c r="J34" s="45"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
       <c r="K34"/>
       <c r="L34" s="9"/>
       <c r="M34" s="9"/>
@@ -1910,6 +1909,28 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="X2:AB2"/>
+    <mergeCell ref="AK2:AR2"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="AC2:AI2"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="A3:B4"/>
@@ -1926,28 +1947,6 @@
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="X2:AB2"/>
-    <mergeCell ref="AK2:AR2"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="AC2:AI2"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="A5 A7 A9 A11 A13 A15 A17 A19 A21 A23 A25 A27 A29 A31 A33">
@@ -1990,7 +1989,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" xWindow="1098" yWindow="431" count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed beyond plan" sqref="AJ2" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed beyond plan" sqref="AJ2"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
@@ -2007,12 +2006,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C6436D3-A4F1-4FF4-96D9-8FF2F8069ED7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2209,18 +2208,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2242,14 +2241,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3512C65A-A41B-4CD4-AFC9-ECD723732A55}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AED3A77-15DE-4DB5-BA42-62C8EB6487B5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -2263,4 +2254,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3512C65A-A41B-4CD4-AFC9-ECD723732A55}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/testbench/Test Plan/TEST_PLAN_alu.xlsx
+++ b/testbench/Test Plan/TEST_PLAN_alu.xlsx
@@ -14,11 +14,11 @@
     <definedName name="Actual">(PeriodInActual*('TEST PLAN'!#REF!&gt;0))*PeriodInPlan</definedName>
     <definedName name="ActualBeyond">PeriodInActual*('TEST PLAN'!#REF!&gt;0)</definedName>
     <definedName name="PercentComplete">PercentCompleteBeyond*PeriodInPlan</definedName>
-    <definedName name="PercentCompleteBeyond">('TEST PLAN'!A$4=MEDIAN('TEST PLAN'!A$4,'TEST PLAN'!#REF!,'TEST PLAN'!#REF!+'TEST PLAN'!#REF!)*('TEST PLAN'!#REF!&gt;0))*(('TEST PLAN'!A$4&lt;(INT('TEST PLAN'!#REF!+'TEST PLAN'!#REF!*'TEST PLAN'!$J1)))+('TEST PLAN'!A$4='TEST PLAN'!#REF!))*('TEST PLAN'!$J1&gt;0)</definedName>
+    <definedName name="PercentCompleteBeyond">('TEST PLAN'!A$4=MEDIAN('TEST PLAN'!A$4,'TEST PLAN'!#REF!,'TEST PLAN'!#REF!+'TEST PLAN'!#REF!)*('TEST PLAN'!#REF!&gt;0))*(('TEST PLAN'!A$4&lt;(INT('TEST PLAN'!#REF!+'TEST PLAN'!#REF!*'TEST PLAN'!#REF!)))+('TEST PLAN'!A$4='TEST PLAN'!#REF!))*('TEST PLAN'!#REF!&gt;0)</definedName>
     <definedName name="period_selected">'TEST PLAN'!#REF!</definedName>
     <definedName name="PeriodInActual">'TEST PLAN'!A$4=MEDIAN('TEST PLAN'!A$4,'TEST PLAN'!#REF!,'TEST PLAN'!#REF!+'TEST PLAN'!#REF!-1)</definedName>
-    <definedName name="PeriodInPlan">'TEST PLAN'!A$4=MEDIAN('TEST PLAN'!A$4,'TEST PLAN'!$C1,'TEST PLAN'!$C1+'TEST PLAN'!$D1-1)</definedName>
-    <definedName name="Plan">PeriodInPlan*('TEST PLAN'!$C1&gt;0)</definedName>
+    <definedName name="PeriodInPlan">'TEST PLAN'!A$4=MEDIAN('TEST PLAN'!A$4,'TEST PLAN'!#REF!,'TEST PLAN'!#REF!+'TEST PLAN'!$C1-1)</definedName>
+    <definedName name="Plan">PeriodInPlan*('TEST PLAN'!#REF!&gt;0)</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'TEST PLAN'!$3:$4</definedName>
     <definedName name="TitleRegion..BO60">'TEST PLAN'!$B$3:$B$4</definedName>
   </definedNames>
@@ -42,27 +42,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>INPUT (1)</t>
-  </si>
-  <si>
-    <t>INPUT(2)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="133">
   <si>
     <t xml:space="preserve">      STATUS</t>
   </si>
   <si>
-    <t xml:space="preserve">          EXPECTED OUTPUT (1)</t>
-  </si>
-  <si>
     <t>SUCSSESS</t>
   </si>
   <si>
     <t>FAILED</t>
-  </si>
-  <si>
-    <t>TEST STATUS</t>
   </si>
   <si>
     <t>NOT TESTED</t>
@@ -87,25 +75,385 @@
     <t>COMMENT</t>
   </si>
   <si>
-    <t xml:space="preserve">                 INPUT(3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                 INPUT(4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              INPUT(5)</t>
-  </si>
-  <si>
     <t>Feature</t>
   </si>
   <si>
-    <t xml:space="preserve">       EXPECTED OUTPUT (2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                 EXPECTED OUTPUT (3)</t>
-  </si>
-  <si>
     <t>ALU TEST PLAN</t>
+  </si>
+  <si>
+    <t>ctrl</t>
+  </si>
+  <si>
+    <t>rs1</t>
+  </si>
+  <si>
+    <t>rs2</t>
+  </si>
+  <si>
+    <t>expected_result</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>5'b00000</t>
+  </si>
+  <si>
+    <t>5'b00001</t>
+  </si>
+  <si>
+    <t>'sd12268</t>
+  </si>
+  <si>
+    <t>'sd51279</t>
+  </si>
+  <si>
+    <t>-'sd61581</t>
+  </si>
+  <si>
+    <t>-'sd1289</t>
+  </si>
+  <si>
+    <t>'sh886431DBF4092325</t>
+  </si>
+  <si>
+    <t>'shFFFFFFFFFFFFFFFF</t>
+  </si>
+  <si>
+    <t>'sd12269</t>
+  </si>
+  <si>
+    <t>'sd12270</t>
+  </si>
+  <si>
+    <t>-'sd38166</t>
+  </si>
+  <si>
+    <t>'sd34976</t>
+  </si>
+  <si>
+    <t>-'sd5023</t>
+  </si>
+  <si>
+    <t>'sh17FD2488CB26BEE6</t>
+  </si>
+  <si>
+    <t>'sh1</t>
+  </si>
+  <si>
+    <t>'sd13113</t>
+  </si>
+  <si>
+    <t>-'sd26605</t>
+  </si>
+  <si>
+    <t>-'sd6312</t>
+  </si>
+  <si>
+    <t>'shA0615664BF2FE20B</t>
+  </si>
+  <si>
+    <t>'sh0</t>
+  </si>
+  <si>
+    <t>sub</t>
+  </si>
+  <si>
+    <t>'sd45973</t>
+  </si>
+  <si>
+    <t>-'sd33705</t>
+  </si>
+  <si>
+    <t>'sd89445</t>
+  </si>
+  <si>
+    <t>-'sd96557</t>
+  </si>
+  <si>
+    <t>'sd3734</t>
+  </si>
+  <si>
+    <t>sll</t>
+  </si>
+  <si>
+    <t>5'b00010</t>
+  </si>
+  <si>
+    <t>'sd24536</t>
+  </si>
+  <si>
+    <t>'sd205116</t>
+  </si>
+  <si>
+    <t>-'sd492648</t>
+  </si>
+  <si>
+    <t>sltu</t>
+  </si>
+  <si>
+    <t>slt</t>
+  </si>
+  <si>
+    <t>5'b00011</t>
+  </si>
+  <si>
+    <t>'sd1</t>
+  </si>
+  <si>
+    <t>'sd0</t>
+  </si>
+  <si>
+    <t>'h8000000000000000</t>
+  </si>
+  <si>
+    <t>5'b00100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xor </t>
+  </si>
+  <si>
+    <t>5'b00101</t>
+  </si>
+  <si>
+    <t>'sd40057</t>
+  </si>
+  <si>
+    <t>-'sd23899</t>
+  </si>
+  <si>
+    <t>-'sd30765</t>
+  </si>
+  <si>
+    <t>'sd5782</t>
+  </si>
+  <si>
+    <t>srl</t>
+  </si>
+  <si>
+    <t>5'b00110</t>
+  </si>
+  <si>
+    <t>'d1</t>
+  </si>
+  <si>
+    <t>'d2</t>
+  </si>
+  <si>
+    <t>'d3</t>
+  </si>
+  <si>
+    <t>'d4</t>
+  </si>
+  <si>
+    <t>'sd6134</t>
+  </si>
+  <si>
+    <t>'sd12819</t>
+  </si>
+  <si>
+    <t>'shFFFFFFFFFFFFFAF</t>
+  </si>
+  <si>
+    <t>'sh1FFFFFFFFFFFE1EE</t>
+  </si>
+  <si>
+    <t>5'b00111</t>
+  </si>
+  <si>
+    <t>sra</t>
+  </si>
+  <si>
+    <t>-'sd7698</t>
+  </si>
+  <si>
+    <t>-'sd81</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>5'b01000</t>
+  </si>
+  <si>
+    <t>'sd49149</t>
+  </si>
+  <si>
+    <t>-'sd5393</t>
+  </si>
+  <si>
+    <t>-'sd28685</t>
+  </si>
+  <si>
+    <t>-'sd265</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>5'b01001</t>
+  </si>
+  <si>
+    <t>'sd9092</t>
+  </si>
+  <si>
+    <t>'sd18506</t>
+  </si>
+  <si>
+    <t>'sd2080</t>
+  </si>
+  <si>
+    <t>-'sd6047</t>
+  </si>
+  <si>
+    <t>jalr</t>
+  </si>
+  <si>
+    <t>5'b01010</t>
+  </si>
+  <si>
+    <t>'sd58240</t>
+  </si>
+  <si>
+    <t>'sd13112</t>
+  </si>
+  <si>
+    <t>-'sd26606</t>
+  </si>
+  <si>
+    <t>addw</t>
+  </si>
+  <si>
+    <t>5'b10000</t>
+  </si>
+  <si>
+    <t>'h166D0D2A6FA83EF0</t>
+  </si>
+  <si>
+    <t>'h084760DA96D6FEE</t>
+  </si>
+  <si>
+    <t>'hB9DB66F2117B2978</t>
+  </si>
+  <si>
+    <t>'hFBC8A34FA13AB781</t>
+  </si>
+  <si>
+    <t>'h16C45C2364CB265</t>
+  </si>
+  <si>
+    <t>'hD70A0561E19C47F</t>
+  </si>
+  <si>
+    <t>'h6810A5D2D5909A9</t>
+  </si>
+  <si>
+    <t>'hA6955F953DE170C1</t>
+  </si>
+  <si>
+    <t>'hFFFFFFFFA5F4F155</t>
+  </si>
+  <si>
+    <t>'hFFFFFFFF8B09B7EA</t>
+  </si>
+  <si>
+    <t>'h000000003ED43321</t>
+  </si>
+  <si>
+    <t>'hFFFFFFFFDF1C2842</t>
+  </si>
+  <si>
+    <t>subw</t>
+  </si>
+  <si>
+    <t>5'b10001</t>
+  </si>
+  <si>
+    <t>'h0000000395B8C8B</t>
+  </si>
+  <si>
+    <t>'hFFFFFFFFC7D127F2</t>
+  </si>
+  <si>
+    <t>'hFFFFFFFFE4221FCF</t>
+  </si>
+  <si>
+    <t>'h0000000635946C0</t>
+  </si>
+  <si>
+    <t>sllw</t>
+  </si>
+  <si>
+    <t>'d10</t>
+  </si>
+  <si>
+    <t>'d20</t>
+  </si>
+  <si>
+    <t>'d5</t>
+  </si>
+  <si>
+    <t>'d7</t>
+  </si>
+  <si>
+    <t>'hFFFFFFFFA0FBC000</t>
+  </si>
+  <si>
+    <t>'hFFFFFFFFFEE00000</t>
+  </si>
+  <si>
+    <t>'h000000002F652F00</t>
+  </si>
+  <si>
+    <t>'hFFFFFFFF9D5BC080</t>
+  </si>
+  <si>
+    <t>srlw</t>
+  </si>
+  <si>
+    <t>'h00000000001BEA0F</t>
+  </si>
+  <si>
+    <t>'h0000000000000A96</t>
+  </si>
+  <si>
+    <t>'h00000000008BD94B</t>
+  </si>
+  <si>
+    <t>'h000000000142756F</t>
+  </si>
+  <si>
+    <t>sraw</t>
+  </si>
+  <si>
+    <t>'d8</t>
+  </si>
+  <si>
+    <t>'d16</t>
+  </si>
+  <si>
+    <t>'d32</t>
+  </si>
+  <si>
+    <t>'h0000000006FA83EF</t>
+  </si>
+  <si>
+    <t>'h0000000000A96D6F</t>
+  </si>
+  <si>
+    <t>'h000000000000117B</t>
+  </si>
+  <si>
+    <t>'h0</t>
+  </si>
+  <si>
+    <t>5'b10010</t>
+  </si>
+  <si>
+    <t>5'b10110</t>
+  </si>
+  <si>
+    <t>5'b10111</t>
   </si>
 </sst>
 </file>
@@ -146,12 +494,6 @@
     <font>
       <sz val="12"/>
       <color theme="1" tint="0.24994659260841701"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="7"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -235,6 +577,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -303,7 +652,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -382,28 +731,10 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="7"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -479,10 +810,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -494,8 +825,39 @@
         <color indexed="64"/>
       </left>
       <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color theme="7"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -504,8 +866,75 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -516,14 +945,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="2" applyFill="0" applyProtection="0">
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="2" applyFill="0" applyProtection="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -532,44 +961,44 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyFill="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyFill="0" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyFill="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="6" borderId="1">
+    <xf numFmtId="1" fontId="11" fillId="6" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -579,7 +1008,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="2" xfId="3">
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="2" xfId="3">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -588,13 +1017,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="11">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="11">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="3" applyBorder="1">
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="3" applyBorder="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -606,124 +1032,46 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="18" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="12">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="12">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="11" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="11" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="2" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="12" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="10" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="6" applyNumberFormat="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="6" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1">
@@ -732,17 +1080,122 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="10">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="10" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="10" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -766,7 +1219,37 @@
     <cellStyle name="Project Headers" xfId="4"/>
     <cellStyle name="Title" xfId="8" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="7"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1163,144 +1646,125 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BR34"/>
+  <dimension ref="A1:BN70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="57" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="77" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.625" customWidth="1"/>
     <col min="2" max="2" width="15.625" style="2" customWidth="1"/>
-    <col min="3" max="7" width="11.625" style="1" customWidth="1"/>
-    <col min="8" max="9" width="11.625" style="39" customWidth="1"/>
-    <col min="10" max="10" width="15.625" style="42" customWidth="1"/>
-    <col min="11" max="14" width="2.75" style="1"/>
-    <col min="15" max="15" width="2.25" style="1" customWidth="1"/>
-    <col min="16" max="16" width="16.875" style="1" customWidth="1"/>
-    <col min="17" max="18" width="2.75" style="1"/>
-    <col min="19" max="19" width="20" style="1" customWidth="1"/>
-    <col min="20" max="20" width="2.75" style="1"/>
-    <col min="21" max="21" width="3.625" style="1" customWidth="1"/>
-    <col min="22" max="26" width="2.75" style="1"/>
-    <col min="27" max="27" width="11.5" style="1" customWidth="1"/>
-    <col min="28" max="30" width="2.75" style="1"/>
+    <col min="3" max="3" width="11.625" style="1" customWidth="1"/>
+    <col min="4" max="6" width="21" style="1" customWidth="1"/>
+    <col min="7" max="10" width="2.75" style="1"/>
+    <col min="11" max="11" width="2.25" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.875" style="1" customWidth="1"/>
+    <col min="13" max="14" width="2.75" style="1"/>
+    <col min="15" max="15" width="20" style="1" customWidth="1"/>
+    <col min="16" max="16" width="2.75" style="1"/>
+    <col min="17" max="17" width="3.625" style="1" customWidth="1"/>
+    <col min="18" max="22" width="2.75" style="1"/>
+    <col min="23" max="23" width="11.5" style="1" customWidth="1"/>
+    <col min="24" max="26" width="2.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+    <row r="1" spans="1:66" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
       <c r="G1" s="16"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="10"/>
-      <c r="AD1"/>
-    </row>
-    <row r="2" spans="1:70" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="41" t="s">
+      <c r="H1" s="9"/>
+      <c r="Z1"/>
+    </row>
+    <row r="2" spans="1:66" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="30"/>
+      <c r="AF2" s="10"/>
+      <c r="AG2" s="25"/>
+      <c r="AH2" s="26"/>
+      <c r="AI2" s="26"/>
+      <c r="AJ2" s="26"/>
+      <c r="AK2" s="26"/>
+      <c r="AL2" s="26"/>
+      <c r="AM2" s="26"/>
+      <c r="AN2" s="26"/>
+    </row>
+    <row r="3" spans="1:66" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="17"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="49" t="s">
+      <c r="B3" s="31"/>
+      <c r="C3" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="49" t="s">
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
-      <c r="V2" s="51"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="50"/>
-      <c r="AA2" s="50"/>
-      <c r="AB2" s="51"/>
-      <c r="AC2" s="56"/>
-      <c r="AD2" s="53"/>
-      <c r="AE2" s="53"/>
-      <c r="AF2" s="53"/>
-      <c r="AG2" s="53"/>
-      <c r="AH2" s="53"/>
-      <c r="AI2" s="57"/>
-      <c r="AJ2" s="11"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="53"/>
-      <c r="AM2" s="53"/>
-      <c r="AN2" s="53"/>
-      <c r="AO2" s="53"/>
-      <c r="AP2" s="53"/>
-      <c r="AQ2" s="53"/>
-      <c r="AR2" s="53"/>
-    </row>
-    <row r="3" spans="1:70" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="29" t="s">
-        <v>8</v>
-      </c>
+      <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
-      <c r="S3" s="30" t="s">
-        <v>9</v>
-      </c>
+      <c r="S3" s="4"/>
       <c r="T3" s="4"/>
       <c r="U3" s="4"/>
       <c r="V3" s="4"/>
@@ -1308,37 +1772,32 @@
       <c r="X3" s="4"/>
       <c r="Y3" s="4"/>
       <c r="Z3" s="4"/>
-      <c r="AA3" s="4"/>
-      <c r="AB3" s="4"/>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="4"/>
-    </row>
-    <row r="4" spans="1:70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="48"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
+    </row>
+    <row r="4" spans="1:66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="65"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
       <c r="AA4" s="3"/>
       <c r="AB4" s="3"/>
@@ -1380,616 +1839,1458 @@
       <c r="BL4" s="3"/>
       <c r="BM4" s="3"/>
       <c r="BN4" s="3"/>
-      <c r="BO4" s="3"/>
-      <c r="BP4" s="3"/>
-      <c r="BQ4" s="3"/>
-      <c r="BR4" s="3"/>
-    </row>
-    <row r="5" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="43">
+    </row>
+    <row r="5" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="41">
         <v>1</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5"/>
+      <c r="B5" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="36"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="9"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-    </row>
-    <row r="6" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+    </row>
+    <row r="6" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="42"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="35"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="9"/>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
-    </row>
-    <row r="7" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43">
-        <v>2</v>
-      </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+    </row>
+    <row r="7" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="42"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="35"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="9"/>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
-      <c r="AH7" s="7"/>
-    </row>
-    <row r="8" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="45"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+    </row>
+    <row r="8" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="42"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="35"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="9"/>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
-    </row>
-    <row r="9" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="43">
-        <v>3</v>
-      </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+    </row>
+    <row r="9" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="42"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="35"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="9"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
-    </row>
-    <row r="10" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="45"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-    </row>
-    <row r="11" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="43">
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+    </row>
+    <row r="10" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="42"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="35"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="21">
+        <v>2</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="35"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="39"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="35"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="39"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="35"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="40"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="35"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="41">
+        <v>3</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="55">
+        <v>1</v>
+      </c>
+      <c r="F15" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="35"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+    </row>
+    <row r="16" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="42"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="55">
+        <v>2</v>
+      </c>
+      <c r="F16" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="35"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+    </row>
+    <row r="17" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="42"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="55">
+        <v>3</v>
+      </c>
+      <c r="F17" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="35"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+    </row>
+    <row r="18" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="43"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="55">
+        <v>255</v>
+      </c>
+      <c r="F18" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" s="35"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+    </row>
+    <row r="19" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="41">
         <v>4</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-    </row>
-    <row r="12" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="45"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-    </row>
-    <row r="13" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="43">
+      <c r="B19" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" s="35"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+    </row>
+    <row r="20" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="42"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="35"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+    </row>
+    <row r="21" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="42"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" s="35"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+    </row>
+    <row r="22" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="43"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" s="35"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+    </row>
+    <row r="23" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="21">
         <v>5</v>
       </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-    </row>
-    <row r="14" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="45"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-    </row>
-    <row r="15" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="43">
+      <c r="B23" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="35"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+    </row>
+    <row r="24" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="39"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="G24" s="35"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+    </row>
+    <row r="25" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="39"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="G25" s="35"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+    </row>
+    <row r="26" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="40"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="G26" s="35"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+    </row>
+    <row r="27" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="21">
         <v>6</v>
       </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-    </row>
-    <row r="16" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="45"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-    </row>
-    <row r="17" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="43">
+      <c r="B27" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="G27" s="35"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+    </row>
+    <row r="28" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="39"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="G28" s="35"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+    </row>
+    <row r="29" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="39"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="G29" s="35"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+    </row>
+    <row r="30" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="40"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="G30" s="35"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+    </row>
+    <row r="31" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="41">
         <v>7</v>
       </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-    </row>
-    <row r="18" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="45"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-    </row>
-    <row r="19" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="43">
+      <c r="B31" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="G31" s="35"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+    </row>
+    <row r="32" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="42"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="G32" s="35"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+    </row>
+    <row r="33" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="42"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="G33" s="35"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+    </row>
+    <row r="34" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="43"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="F34" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="G34" s="35"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+    </row>
+    <row r="35" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="41">
         <v>8</v>
       </c>
-      <c r="B19" s="44"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-    </row>
-    <row r="20" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="45"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-    </row>
-    <row r="21" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="43">
+      <c r="B35" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="F35" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="G35" s="35"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+    </row>
+    <row r="36" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="42"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="F36" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="G36" s="35"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+    </row>
+    <row r="37" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="42"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="F37" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="G37" s="35"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+    </row>
+    <row r="38" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="43"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="F38" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="G38" s="35"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+    </row>
+    <row r="39" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="21">
         <v>9</v>
       </c>
-      <c r="B21" s="44"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-    </row>
-    <row r="22" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="45"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-    </row>
-    <row r="23" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="43">
+      <c r="B39" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="D39" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="F39" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="G39" s="35"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+    </row>
+    <row r="40" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="39"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="F40" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="G40" s="35"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+    </row>
+    <row r="41" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="39"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="F41" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="G41" s="35"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+    </row>
+    <row r="42" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="40"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="G42" s="35"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+    </row>
+    <row r="43" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="21">
         <v>10</v>
       </c>
-      <c r="B23" s="44"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-    </row>
-    <row r="24" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="45"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="K24"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-    </row>
-    <row r="25" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="43">
+      <c r="B43" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="D43" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="F43" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="G43" s="35"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+    </row>
+    <row r="44" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="39"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="F44" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="G44" s="35"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+    </row>
+    <row r="45" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="39"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="48"/>
+      <c r="D45" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="F45" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="G45" s="35"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+    </row>
+    <row r="46" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="40"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="G46" s="35"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+    </row>
+    <row r="47" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="21">
         <v>11</v>
       </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="37"/>
-      <c r="K25"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-    </row>
-    <row r="26" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="45"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-      <c r="K26"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-    </row>
-    <row r="27" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="43">
+      <c r="B47" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C47" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="D47" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="F47" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="G47" s="35"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+    </row>
+    <row r="48" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="39"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="E48" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="F48" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="G48" s="35"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+    </row>
+    <row r="49" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="39"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="48"/>
+      <c r="D49" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="F49" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="G49" s="35"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+    </row>
+    <row r="50" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="40"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="49"/>
+      <c r="D50" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="E50" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="F50" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="G50" s="35"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+    </row>
+    <row r="51" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="21">
         <v>12</v>
       </c>
-      <c r="B27" s="44"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-    </row>
-    <row r="28" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="45"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
-      <c r="K28"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-    </row>
-    <row r="29" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="43">
+      <c r="B51" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="C51" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="D51" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="E51" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="F51" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="G51" s="35"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+    </row>
+    <row r="52" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="39"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="51"/>
+      <c r="D52" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="E52" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="F52" s="60" t="s">
+        <v>99</v>
+      </c>
+      <c r="G52" s="35"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+    </row>
+    <row r="53" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="39"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="51"/>
+      <c r="D53" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="E53" s="61" t="s">
+        <v>96</v>
+      </c>
+      <c r="F53" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="G53" s="35"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+    </row>
+    <row r="54" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="40"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="52"/>
+      <c r="D54" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="E54" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="F54" s="62" t="s">
+        <v>101</v>
+      </c>
+      <c r="G54" s="35"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+    </row>
+    <row r="55" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="41">
         <v>13</v>
       </c>
-      <c r="B29" s="44"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="37"/>
-      <c r="K29"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-    </row>
-    <row r="30" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="45"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="36"/>
-      <c r="K30"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-    </row>
-    <row r="31" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="43">
+      <c r="B55" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="C55" s="58" t="s">
+        <v>103</v>
+      </c>
+      <c r="D55" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="E55" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="F55" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="G55" s="35"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+    </row>
+    <row r="56" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="42"/>
+      <c r="B56" s="42"/>
+      <c r="C56" s="51"/>
+      <c r="D56" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="E56" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="F56" s="62" t="s">
+        <v>105</v>
+      </c>
+      <c r="G56" s="35"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+    </row>
+    <row r="57" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="42"/>
+      <c r="B57" s="42"/>
+      <c r="C57" s="51"/>
+      <c r="D57" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="E57" s="61" t="s">
+        <v>96</v>
+      </c>
+      <c r="F57" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="G57" s="35"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+    </row>
+    <row r="58" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="43"/>
+      <c r="B58" s="43"/>
+      <c r="C58" s="49"/>
+      <c r="D58" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="E58" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="F58" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="G58" s="35"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+    </row>
+    <row r="59" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="41">
         <v>14</v>
       </c>
-      <c r="B31" s="44"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="37"/>
-      <c r="K31"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-    </row>
-    <row r="32" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="45"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="36"/>
-      <c r="K32"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-    </row>
-    <row r="33" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="43">
+      <c r="B59" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="C59" s="58" t="s">
+        <v>130</v>
+      </c>
+      <c r="D59" s="64" t="s">
+        <v>90</v>
+      </c>
+      <c r="E59" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="F59" s="63" t="s">
+        <v>113</v>
+      </c>
+      <c r="G59" s="35"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+    </row>
+    <row r="60" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="42"/>
+      <c r="B60" s="42"/>
+      <c r="C60" s="51"/>
+      <c r="D60" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="E60" s="61" t="s">
+        <v>110</v>
+      </c>
+      <c r="F60" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="G60" s="35"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+    </row>
+    <row r="61" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="42"/>
+      <c r="B61" s="42"/>
+      <c r="C61" s="51"/>
+      <c r="D61" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="E61" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="F61" s="62" t="s">
+        <v>115</v>
+      </c>
+      <c r="G61" s="35"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+    </row>
+    <row r="62" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="43"/>
+      <c r="B62" s="43"/>
+      <c r="C62" s="49"/>
+      <c r="D62" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="E62" s="61" t="s">
+        <v>112</v>
+      </c>
+      <c r="F62" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="G62" s="35"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
+    </row>
+    <row r="63" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="41">
         <v>15</v>
       </c>
-      <c r="B33" s="44"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="37"/>
-      <c r="K33"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-    </row>
-    <row r="34" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="45"/>
-      <c r="B34" s="46"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36"/>
-      <c r="K34"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
+      <c r="B63" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="C63" s="58" t="s">
+        <v>131</v>
+      </c>
+      <c r="D63" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="E63" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="F63" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="G63" s="35"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
+    </row>
+    <row r="64" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="42"/>
+      <c r="B64" s="42"/>
+      <c r="C64" s="51"/>
+      <c r="D64" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="E64" s="61" t="s">
+        <v>110</v>
+      </c>
+      <c r="F64" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="G64" s="35"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
+    </row>
+    <row r="65" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="42"/>
+      <c r="B65" s="42"/>
+      <c r="C65" s="51"/>
+      <c r="D65" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="E65" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="F65" s="62" t="s">
+        <v>120</v>
+      </c>
+      <c r="G65" s="35"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
+    </row>
+    <row r="66" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="43"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="49"/>
+      <c r="D66" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="E66" s="61" t="s">
+        <v>112</v>
+      </c>
+      <c r="F66" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="G66" s="35"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="8"/>
+    </row>
+    <row r="67" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="41">
+        <v>16</v>
+      </c>
+      <c r="B67" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="C67" s="58" t="s">
+        <v>132</v>
+      </c>
+      <c r="D67" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="E67" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="F67" s="62" t="s">
+        <v>126</v>
+      </c>
+      <c r="G67" s="35"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="8"/>
+      <c r="J67" s="8"/>
+    </row>
+    <row r="68" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="42"/>
+      <c r="B68" s="42"/>
+      <c r="C68" s="51"/>
+      <c r="D68" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="E68" s="61" t="s">
+        <v>123</v>
+      </c>
+      <c r="F68" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="G68" s="35"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="8"/>
+      <c r="J68" s="8"/>
+    </row>
+    <row r="69" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="42"/>
+      <c r="B69" s="42"/>
+      <c r="C69" s="51"/>
+      <c r="D69" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="E69" s="59" t="s">
+        <v>124</v>
+      </c>
+      <c r="F69" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="G69" s="35"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8"/>
+      <c r="J69" s="8"/>
+    </row>
+    <row r="70" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="43"/>
+      <c r="B70" s="43"/>
+      <c r="C70" s="49"/>
+      <c r="D70" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="E70" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="F70" s="60" t="s">
+        <v>129</v>
+      </c>
+      <c r="G70" s="35"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
+      <c r="J70" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="38">
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="X2:AB2"/>
-    <mergeCell ref="AK2:AR2"/>
+  <mergeCells count="59">
+    <mergeCell ref="A67:A70"/>
+    <mergeCell ref="B67:B70"/>
+    <mergeCell ref="C67:C70"/>
+    <mergeCell ref="C63:C66"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="C47:C50"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="C55:C58"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="C59:C62"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="G6:G70"/>
+    <mergeCell ref="C5:C10"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="T2:X2"/>
+    <mergeCell ref="AG2:AN2"/>
     <mergeCell ref="C3:C4"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="D3:D4"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="AC2:AI2"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
-  <conditionalFormatting sqref="A5 A7 A9 A11 A13 A15 A17 A19 A21 A23 A25 A27 A29 A31 A33">
-    <cfRule type="duplicateValues" dxfId="10" priority="47"/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <conditionalFormatting sqref="A67 A5 A11 A15 A19 A23 A39 A43">
+    <cfRule type="duplicateValues" dxfId="12" priority="48"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B35:BR35">
-    <cfRule type="expression" dxfId="9" priority="3">
+  <conditionalFormatting sqref="G71">
+    <cfRule type="expression" dxfId="11" priority="4">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5:K34 O5:BR34">
-    <cfRule type="expression" dxfId="8" priority="2">
+  <conditionalFormatting sqref="K5:BN70">
+    <cfRule type="expression" dxfId="10" priority="3">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="4">
+    <cfRule type="expression" dxfId="9" priority="5">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="5">
+    <cfRule type="expression" dxfId="8" priority="6">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="7" priority="7">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="7">
+    <cfRule type="expression" dxfId="6" priority="8">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="8">
+    <cfRule type="expression" dxfId="5" priority="9">
       <formula>K$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="12">
+    <cfRule type="expression" dxfId="4" priority="13">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="13">
+    <cfRule type="expression" dxfId="3" priority="14">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4:BR4">
-    <cfRule type="expression" dxfId="0" priority="9">
-      <formula>K$4=period_selected</formula>
+  <conditionalFormatting sqref="H4:BN4">
+    <cfRule type="expression" dxfId="2" priority="10">
+      <formula>H$4=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
+    <cfRule type="expression" dxfId="1" priority="58">
+      <formula>G$5=period_selected</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <dataValidations disablePrompts="1" xWindow="1098" yWindow="431" count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed beyond plan" sqref="AJ2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed beyond plan" sqref="AF2"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
@@ -2208,18 +3509,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2241,6 +3542,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3512C65A-A41B-4CD4-AFC9-ECD723732A55}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AED3A77-15DE-4DB5-BA42-62C8EB6487B5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -2254,12 +3563,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3512C65A-A41B-4CD4-AFC9-ECD723732A55}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>